--- a/data/HospitalInfo.xlsx
+++ b/data/HospitalInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hya20\git\MiniProject_Test\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -209,6 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,10 +678,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.625" customWidth="1"/>
-    <col min="2" max="2" width="50.625" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="40.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="50.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="40.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -707,8 +708,8 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
-        <v>127</v>
+      <c r="D2" s="7" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/HospitalInfo.xlsx
+++ b/data/HospitalInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hya20\git\MiniProject_Test\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -209,6 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,10 +678,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.625" customWidth="1"/>
-    <col min="2" max="2" width="50.625" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="40.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="50.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="40.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -721,8 +722,8 @@
       <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11">
-        <v>88</v>
+      <c r="D3" s="11" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -735,8 +736,8 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7">
-        <v>57</v>
+      <c r="D4" s="7" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -763,8 +764,8 @@
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7">
-        <v>48</v>
+      <c r="D6" s="7" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -861,8 +862,8 @@
       <c r="C13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="11">
-        <v>65</v>
+      <c r="D13" s="11" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/HospitalInfo.xlsx
+++ b/data/HospitalInfo.xlsx
@@ -722,8 +722,8 @@
       <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11">
-        <v>88</v>
+      <c r="D3" s="11" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -750,8 +750,8 @@
       <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11">
-        <v>75</v>
+      <c r="D5" s="11" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/HospitalInfo.xlsx
+++ b/data/HospitalInfo.xlsx
@@ -736,8 +736,8 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7">
-        <v>57</v>
+      <c r="D4" s="7" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/HospitalInfo.xlsx
+++ b/data/HospitalInfo.xlsx
@@ -722,8 +722,8 @@
       <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11">
-        <v>88</v>
+      <c r="D3" s="11" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -736,8 +736,8 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7">
-        <v>57</v>
+      <c r="D4" s="7" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,8 +820,8 @@
       <c r="C10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7">
-        <v>55</v>
+      <c r="D10" s="7" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,8 +834,8 @@
       <c r="C11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="11">
-        <v>131</v>
+      <c r="D11" s="11" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/HospitalInfo.xlsx
+++ b/data/HospitalInfo.xlsx
@@ -792,8 +792,8 @@
       <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7">
-        <v>105</v>
+      <c r="D8" s="7" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/HospitalInfo.xlsx
+++ b/data/HospitalInfo.xlsx
@@ -764,8 +764,8 @@
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7">
-        <v>48</v>
+      <c r="D6" s="7" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/HospitalInfo.xlsx
+++ b/data/HospitalInfo.xlsx
@@ -723,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>88.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,8 +820,8 @@
       <c r="C10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7">
-        <v>55</v>
+      <c r="D10" s="7" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,8 +834,8 @@
       <c r="C11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="11">
-        <v>131</v>
+      <c r="D11" s="11" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/HospitalInfo.xlsx
+++ b/data/HospitalInfo.xlsx
@@ -723,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>88.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
